--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.784191545137647</v>
+        <v>0.1170883333333333</v>
       </c>
       <c r="H2">
-        <v>0.784191545137647</v>
+        <v>0.351265</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.09352043543917719</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.09352043543917718</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>20.2786966882823</v>
+        <v>0.3392376666666667</v>
       </c>
       <c r="N2">
-        <v>20.2786966882823</v>
+        <v>1.017713</v>
       </c>
       <c r="O2">
-        <v>0.8594796103581972</v>
+        <v>0.01394884456468018</v>
       </c>
       <c r="P2">
-        <v>0.8594796103581972</v>
+        <v>0.01394884456468017</v>
       </c>
       <c r="Q2">
-        <v>15.90238248936178</v>
+        <v>0.0397207729938889</v>
       </c>
       <c r="R2">
-        <v>15.90238248936178</v>
+        <v>0.357486956945</v>
       </c>
       <c r="S2">
-        <v>0.8594796103581972</v>
+        <v>0.00130450201756229</v>
       </c>
       <c r="T2">
-        <v>0.8594796103581972</v>
+        <v>0.00130450201756229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,309 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.1170883333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.351265</v>
+      </c>
+      <c r="I3">
+        <v>0.09352043543917719</v>
+      </c>
+      <c r="J3">
+        <v>0.09352043543917718</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>20.328499</v>
+      </c>
+      <c r="N3">
+        <v>60.985497</v>
+      </c>
+      <c r="O3">
+        <v>0.8358714277529804</v>
+      </c>
+      <c r="P3">
+        <v>0.8358714277529804</v>
+      </c>
+      <c r="Q3">
+        <v>2.380230067078333</v>
+      </c>
+      <c r="R3">
+        <v>21.422070603705</v>
+      </c>
+      <c r="S3">
+        <v>0.07817105989462547</v>
+      </c>
+      <c r="T3">
+        <v>0.07817105989462546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1170883333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.351265</v>
+      </c>
+      <c r="I4">
+        <v>0.09352043543917719</v>
+      </c>
+      <c r="J4">
+        <v>0.09352043543917718</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3.65239</v>
+      </c>
+      <c r="N4">
+        <v>10.95717</v>
+      </c>
+      <c r="O4">
+        <v>0.1501797276823394</v>
+      </c>
+      <c r="P4">
+        <v>0.1501797276823394</v>
+      </c>
+      <c r="Q4">
+        <v>0.4276522577833333</v>
+      </c>
+      <c r="R4">
+        <v>3.84887032005</v>
+      </c>
+      <c r="S4">
+        <v>0.01404487352698943</v>
+      </c>
+      <c r="T4">
+        <v>0.01404487352698943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.784191545137647</v>
-      </c>
-      <c r="H3">
-        <v>0.784191545137647</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>3.31546010600272</v>
-      </c>
-      <c r="N3">
-        <v>3.31546010600272</v>
-      </c>
-      <c r="O3">
-        <v>0.1405203896418028</v>
-      </c>
-      <c r="P3">
-        <v>0.1405203896418028</v>
-      </c>
-      <c r="Q3">
-        <v>2.5999557833685</v>
-      </c>
-      <c r="R3">
-        <v>2.5999557833685</v>
-      </c>
-      <c r="S3">
-        <v>0.1405203896418028</v>
-      </c>
-      <c r="T3">
-        <v>0.1405203896418028</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.134919666666667</v>
+      </c>
+      <c r="H5">
+        <v>3.404758999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.9064795645608229</v>
+      </c>
+      <c r="J5">
+        <v>0.9064795645608228</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.3392376666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.017713</v>
+      </c>
+      <c r="O5">
+        <v>0.01394884456468018</v>
+      </c>
+      <c r="P5">
+        <v>0.01394884456468017</v>
+      </c>
+      <c r="Q5">
+        <v>0.3850074995741111</v>
+      </c>
+      <c r="R5">
+        <v>3.465067496167</v>
+      </c>
+      <c r="S5">
+        <v>0.01264434254711789</v>
+      </c>
+      <c r="T5">
+        <v>0.01264434254711788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.134919666666667</v>
+      </c>
+      <c r="H6">
+        <v>3.404758999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.9064795645608229</v>
+      </c>
+      <c r="J6">
+        <v>0.9064795645608228</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>20.328499</v>
+      </c>
+      <c r="N6">
+        <v>60.985497</v>
+      </c>
+      <c r="O6">
+        <v>0.8358714277529804</v>
+      </c>
+      <c r="P6">
+        <v>0.8358714277529804</v>
+      </c>
+      <c r="Q6">
+        <v>23.07121330891366</v>
+      </c>
+      <c r="R6">
+        <v>207.640919780223</v>
+      </c>
+      <c r="S6">
+        <v>0.757700367858355</v>
+      </c>
+      <c r="T6">
+        <v>0.7577003678583549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.134919666666667</v>
+      </c>
+      <c r="H7">
+        <v>3.404758999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9064795645608229</v>
+      </c>
+      <c r="J7">
+        <v>0.9064795645608228</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.65239</v>
+      </c>
+      <c r="N7">
+        <v>10.95717</v>
+      </c>
+      <c r="O7">
+        <v>0.1501797276823394</v>
+      </c>
+      <c r="P7">
+        <v>0.1501797276823394</v>
+      </c>
+      <c r="Q7">
+        <v>4.145169241336666</v>
+      </c>
+      <c r="R7">
+        <v>37.30652317202999</v>
+      </c>
+      <c r="S7">
+        <v>0.13613485415535</v>
+      </c>
+      <c r="T7">
+        <v>0.1361348541553499</v>
       </c>
     </row>
   </sheetData>
